--- a/xlsx/汤森路透_intext.xlsx
+++ b/xlsx/汤森路透_intext.xlsx
@@ -29,25 +29,25 @@
     <t>上市公司</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_汤森路透</t>
+    <t>政策_政策_维基百科_汤森路透</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8%E4%BB%A3%E8%99%9F</t>
   </si>
   <si>
-    <t>股票代號</t>
+    <t>股票代号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
   </si>
   <si>
-    <t>紐約證券交易所</t>
+    <t>纽约证券交易所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%80%AB%E5%A4%9A%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
   </si>
   <si>
-    <t>多倫多證券交易所</t>
+    <t>多伦多证券交易所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E5%9C%8B%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>跨國公司</t>
+    <t>跨国公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>大眾媒體</t>
+    <t>大众媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Reuters</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E6%A3%AE%E8%B7%AF%E9%80%8F%E5%BC%95%E6%96%87%E6%A1%82%E5%86%A0%E7%8D%8E</t>
   </si>
   <si>
-    <t>湯森路透引文桂冠獎</t>
+    <t>汤森路透引文桂冠奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:S%26P/TSX_60</t>
@@ -149,19 +149,19 @@
     <t>https://zh.wikipedia.org/wiki/ARC%E8%B3%87%E6%BA%90</t>
   </si>
   <si>
-    <t>ARC資源</t>
+    <t>ARC资源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BB%BF%E5%9C%B0%E5%8F%AF%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>滿地可銀行</t>
+    <t>满地可银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E8%B1%90%E6%A5%AD%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>加拿大豐業銀行</t>
+    <t>加拿大丰业银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E8%8E%93%E5%85%AC%E5%8F%B8</t>
@@ -173,25 +173,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%87%8C%E5%85%8B%E9%BB%83%E9%87%91%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>巴里克黃金公司</t>
+    <t>巴里克黄金公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E8%B2%9D%E7%88%BE</t>
   </si>
   <si>
-    <t>加拿大貝爾</t>
+    <t>加拿大贝尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%90%E5%B7%B4%E8%BF%AA%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>龐巴迪公司</t>
+    <t>庞巴迪公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E5%85%8B%E8%8F%B2%E7%88%BE%E5%BE%B7%E8%B3%87%E7%94%A2%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>布魯克菲爾德資產管理</t>
+    <t>布鲁克菲尔德资产管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%A2%85%E7%A7%91</t>
@@ -203,55 +203,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%B8%9D%E5%9C%8B%E5%95%86%E6%A5%AD%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>加拿大帝國商業銀行</t>
+    <t>加拿大帝国商业银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%9C%8B%E5%AE%B6%E9%90%B5%E8%B7%AF%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>加拿大國家鐵路公司</t>
+    <t>加拿大国家铁路公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E8%87%AA%E7%84%B6%E8%B3%87%E6%BA%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>加拿大自然資源公司</t>
+    <t>加拿大自然资源公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%A4%AA%E5%B9%B3%E6%B4%8B%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>加拿大太平洋鐵路</t>
+    <t>加拿大太平洋铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CGI%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>CGI集團</t>
+    <t>CGI集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%88%BE%E6%8B%89%E5%A4%9A%E9%BB%83%E9%87%91</t>
   </si>
   <si>
-    <t>埃爾拉多黃金</t>
+    <t>埃尔拉多黄金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E5%8D%A1%E7%B4%8D</t>
   </si>
   <si>
-    <t>恩卡納</t>
+    <t>恩卡纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E9%87%8F%E5%AD%90%E7%A4%A6%E6%A5%AD</t>
   </si>
   <si>
-    <t>第一量子礦業</t>
+    <t>第一量子矿业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E9%80%9A%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>富通集團</t>
+    <t>富通集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E6%96%AF%E5%9F%BA%E8%83%BD%E6%BA%90%E5%85%AC%E5%8F%B8</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E6%A0%BC%E7%B4%8D%E5%9C%8B%E9%9A%9B</t>
   </si>
   <si>
-    <t>麥格納國際</t>
+    <t>麦格纳国际</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E5%88%A9%E9%87%91%E8%9E%8D</t>
@@ -275,43 +275,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>加拿大銀行</t>
+    <t>加拿大银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E9%AE%91%E7%88%BE%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>加拿大鮑爾集團</t>
+    <t>加拿大鲍尔集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%B8%A3%E5%A3%AB%E9%80%9A%E8%A8%8A%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>羅渣士通訊集團</t>
+    <t>罗渣士通讯集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E7%9A%87%E5%AE%B6%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>加拿大皇家銀行</t>
+    <t>加拿大皇家银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%99%AE%E6%89%98%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>薩普托公司</t>
+    <t>萨普托公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%95%AD%E6%B0%8F%E9%80%9A%E8%A8%8A</t>
   </si>
   <si>
-    <t>蕭氏通訊</t>
+    <t>萧氏通讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E6%98%8E%E9%87%91%E8%9E%8D%E9%9B%86%E5%9C%98%E8%82%A1%E4%BB%BD</t>
   </si>
   <si>
-    <t>永明金融集團股份</t>
+    <t>永明金融集团股份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E9%87%8C%E6%96%AF%E6%9B%BC%E8%83%BD%E6%BA%90</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%85%8B%E8%B3%87%E6%BA%90</t>
   </si>
   <si>
-    <t>泰克資源</t>
+    <t>泰克资源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%A7%91</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%80%AB%E5%A4%9A%E9%81%93%E6%98%8E%E9%8A%80%E8%A1%8C%E9%87%91%E8%9E%8D%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>多倫多道明銀行金融集團</t>
+    <t>多伦多道明银行金融集团</t>
   </si>
 </sst>
 </file>
